--- a/biology/Botanique/Olea_sect._Ligustroides/Olea_sect._Ligustroides.xlsx
+++ b/biology/Botanique/Olea_sect._Ligustroides/Olea_sect._Ligustroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ligustroides
-La section Ligustroides rassemble des plantes appartenant au sous-genre Olea et au genre Olea[1]. Le travail de révision de P.S. Green a réorganisé complètement la taxonomie du genre Olea (il a créé le sous-genre et les deux sections) lesquelles sont reprises par des publications récentes[2]. Le type (lectotype) est Olea capensis L. (ici décrit).
+La section Ligustroides rassemble des plantes appartenant au sous-genre Olea et au genre Olea. Le travail de révision de P.S. Green a réorganisé complètement la taxonomie du genre Olea (il a créé le sous-genre et les deux sections) lesquelles sont reprises par des publications récentes. Le type (lectotype) est Olea capensis L. (ici décrit).
 </t>
         </is>
       </c>
@@ -514,13 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce sont des arbres ou des buissons. Les  feuilles sont entières, sans domaties, glabres.
-Appareil reproducteur
-Les inflorescences sont axillaires ou terminales. La corolle des fleurs a un tube court.
-Le fruit est une drupe.
-Note taxonomique
-Dans le cas de cette section, la variabilité florale est faible. Les quatre lobes triangulaires du calice varient peu entre 0,5 et 0,8 mm tandis que pour les lobes de la corolle, les variations en longueur sont comprises entre 2 et 2,5 mm. Concernant des plantes de l'Afrique équatoriales  certaines proposent de plus grandes dimensions. Il n'y a pas d'autres variations florales.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbres ou des buissons. Les  feuilles sont entières, sans domaties, glabres.
 </t>
         </is>
       </c>
@@ -546,14 +558,126 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont axillaires ou terminales. La corolle des fleurs a un tube court.
+Le fruit est une drupe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olea_sect._Ligustroides</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_sect._Ligustroides</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Note taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cas de cette section, la variabilité florale est faible. Les quatre lobes triangulaires du calice varient peu entre 0,5 et 0,8 mm tandis que pour les lobes de la corolle, les variations en longueur sont comprises entre 2 et 2,5 mm. Concernant des plantes de l'Afrique équatoriales  certaines proposent de plus grandes dimensions. Il n'y a pas d'autres variations florales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olea_sect._Ligustroides</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_sect._Ligustroides</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon l'auteur de la révision du genre Olea[3], la liste extensive de synonymes de la section Olea est justifiée, non seulement par la morphologie des plantes mais aussi par l'analyse des glucosides flavonoïdes.
-Taxons
-Les espèces rassemblées dans cette section sont majoritairement présentes en Afrique du Sud, à Madagascar et dans l'archipel des Mascareignes (La Réunion, l'île Maurice et Rodrigues). Ce sont :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'auteur de la révision du genre Olea, la liste extensive de synonymes de la section Olea est justifiée, non seulement par la morphologie des plantes mais aussi par l'analyse des glucosides flavonoïdes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_sect._Ligustroides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_sect._Ligustroides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxons</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les espèces rassemblées dans cette section sont majoritairement présentes en Afrique du Sud, à Madagascar et dans l'archipel des Mascareignes (La Réunion, l'île Maurice et Rodrigues). Ce sont :
 Olea ambrensis H. Perrier ;
 Olea woodiana Knobl, comprenant 2 sous-espèces :
 Olea woodiana subsp. woodiana (Knobl) ,
@@ -567,9 +691,43 @@
 Olea lancea Lam., (bois d'olive blanc) ;
 Olea schliebenii Knobl. ;
 Olea undulata (Sol) Jacq. ;
-Olea welwitschii (Knobl.) Gilg &amp; Schellemb..
-Synonymes
-Faulia Raf., F1. Tellur. 2: 84 (1836), pro parte.
+Olea welwitschii (Knobl.) Gilg &amp; Schellemb..</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olea_sect._Ligustroides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_sect._Ligustroides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Faulia Raf., F1. Tellur. 2: 84 (1836), pro parte.
 Enaimon Raf., Sylva Tellur.: 9 (1838). Type: E. undulata(Jacq.) Raf.
 Steganthus Knobl., Notizbl. Bot. Gart. Berlin-Dahlem 12: 116 (1934). Type: S.
 Welwitschii (Knobl.) Knobl. (lectot)ype .
